--- a/NN results.xlsx
+++ b/NN results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_GitHub\imaginexlab_smartglove\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E83CB62-B3E7-4A0B-861E-47895D5249B0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A97258-9B26-486C-8F54-9F0F58646E6E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{5A72123B-56DD-4CD8-A3EE-759537C50F30}"/>
+    <workbookView xWindow="5190" yWindow="1935" windowWidth="22305" windowHeight="9150" activeTab="1" xr2:uid="{5A72123B-56DD-4CD8-A3EE-759537C50F30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
   <si>
     <t>#Feature</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,16 +83,35 @@
     <t>3m26s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Mean ACC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean Vali</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean Loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean Valid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3m25s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,16 +127,30 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -124,17 +158,120 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  </cellStyleXfs>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -143,14 +280,42 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="셀 확인" xfId="1" builtinId="23"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -463,407 +628,2574 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95AAE3A-0E9F-4A2C-BA33-6821498832D6}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" thickTop="1" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="1.875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="1.875" style="13" customWidth="1"/>
+    <col min="19" max="19" width="1.875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="G1" s="11"/>
+      <c r="H1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="J1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="11"/>
+      <c r="N1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="11"/>
+      <c r="T1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>0.4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0.29170000000000001</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>1.3</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>1.5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="G2" s="12"/>
+      <c r="H2" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.29170000000000001</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="R2" s="3"/>
+      <c r="S2" s="12"/>
+      <c r="T2">
+        <f>(B2+H2+N2)/3</f>
+        <v>0.42333333333333334</v>
+      </c>
+      <c r="U2">
+        <f>(C2+I2+O2)/3</f>
+        <v>0.27779999999999999</v>
+      </c>
+      <c r="V2">
+        <f>(D2+J2+P2)/3</f>
+        <v>1.2666666666666666</v>
+      </c>
+      <c r="W2">
+        <f>(E2+K2+Q2)/3</f>
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.7</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.41670000000000001</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0.75</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>1.4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="G3" s="12"/>
+      <c r="H3" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="R3" s="3"/>
+      <c r="S3" s="12"/>
+      <c r="T3">
+        <f t="shared" ref="T3:U16" si="0">(B3+H3+N3)/3</f>
+        <v>0.69999999999999984</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>0.55556666666666665</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V16" si="1">(D3+J3+P3)/3</f>
+        <v>0.75</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W16" si="2">(E3+K3+Q3)/3</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.8</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.54169999999999996</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0.7</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>0.7</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="G4" s="12"/>
+      <c r="H4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="R4" s="3"/>
+      <c r="S4" s="12"/>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>0.79333333333333333</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>0.61109999999999998</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="2"/>
+        <v>0.78333333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0.7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.625</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>0.6</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="G5" s="12"/>
+      <c r="H5" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="R5" s="3"/>
+      <c r="S5" s="12"/>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>0.63890000000000002</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>0.65</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="2"/>
+        <v>0.82333333333333336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0.8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.83333000000000002</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0.4</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="G6" s="12"/>
+      <c r="H6" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0.32340000000000002</v>
+      </c>
+      <c r="R6" s="3"/>
+      <c r="S6" s="12"/>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>0.76387666666666665</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="2"/>
+        <v>0.55113333333333336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>0.8</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>0.79169999999999996</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>0.6</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.48</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="G7" s="12"/>
+      <c r="H7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="R7" s="3"/>
+      <c r="S7" s="12"/>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>0.65280000000000005</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="2"/>
+        <v>0.78666666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>0.82</v>
       </c>
-      <c r="C8" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D8" s="4">
         <v>0.4</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0.7</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="G8" s="12"/>
+      <c r="H8" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.45829999999999999</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="R8" s="3"/>
+      <c r="S8" s="12"/>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>0.84</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>0.67220000000000002</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="2"/>
+        <v>0.93333333333333324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C9" s="1">
         <v>0.83330000000000004</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>0.3</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>0.45</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="G9" s="12"/>
+      <c r="H9" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="R9" s="3"/>
+      <c r="S9" s="12"/>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>0.82666666666666666</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>0.79163333333333341</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>0.32666666666666666</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>0.42333333333333334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C10" s="1">
         <v>0.75</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>0.3</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>0.3</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="G10" s="12"/>
+      <c r="H10" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="R10" s="3"/>
+      <c r="S10" s="12"/>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>0.69443333333333335</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>0.32333333333333336</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="2"/>
+        <v>0.5033333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C11" s="1">
         <v>0.83330000000000004</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>0.4</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>0.4</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="G11" s="12"/>
+      <c r="H11" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.59689999999999999</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="R11" s="3"/>
+      <c r="S11" s="12"/>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>0.84666666666666668</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>0.76390000000000002</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>0.50229999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C12" s="1">
         <v>0.75</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>0.4</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>0.48</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="G12" s="12"/>
+      <c r="H12" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R12" s="3"/>
+      <c r="S12" s="12"/>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>0.72223333333333339</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="2"/>
+        <v>0.52666666666666673</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="B13" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="12"/>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>0.85333333333333339</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>0.65280000000000005</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>0.29333333333333333</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="2"/>
+        <v>0.71666666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="B14" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.54169999999999996</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="12"/>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>0.68056666666666665</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="2"/>
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="B15" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="R15" s="3"/>
+      <c r="S15" s="12"/>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>0.87666666666666659</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="2"/>
+        <v>0.40333333333333332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="B16" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="12"/>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>0.89</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="2"/>
+        <v>0.51666666666666661</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="12"/>
+    </row>
+    <row r="18" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="12"/>
+    </row>
+    <row r="19" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="12"/>
+    </row>
+    <row r="20" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="12"/>
+    </row>
+    <row r="21" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="12"/>
+    </row>
+    <row r="22" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="12"/>
+    </row>
+    <row r="23" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="12"/>
+    </row>
+    <row r="24" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="12"/>
+    </row>
+    <row r="25" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="12"/>
+    </row>
+    <row r="26" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
         <v>25</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F29" s="4"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="12"/>
+    </row>
+    <row r="27" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="2"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="3"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="3"/>
+      <c r="G29" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DF2750-BA70-4DDA-913B-5B685638C472}">
+  <dimension ref="A1:W29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" thickTop="1" thickBottom="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="1.875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="1.875" style="13" customWidth="1"/>
+    <col min="19" max="19" width="1.875" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="11"/>
+      <c r="N1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="11"/>
+      <c r="T1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.68789999999999996</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.90029999999999999</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.8095</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.89370000000000005</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.5071</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.52380000000000004</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0.64690000000000003</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0.84509999999999996</v>
+      </c>
+      <c r="R2" s="3"/>
+      <c r="S2" s="12"/>
+      <c r="T2">
+        <f>(B2+H2+N2)/3</f>
+        <v>0.69999999999999984</v>
+      </c>
+      <c r="U2">
+        <f>(C2+I2+O2)/3</f>
+        <v>0.65076666666666672</v>
+      </c>
+      <c r="V2">
+        <f>(D2+J2+P2)/3</f>
+        <v>0.74283333333333335</v>
+      </c>
+      <c r="W2">
+        <f>(E2+K2+Q2)/3</f>
+        <v>0.75083333333333335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.90480000000000005</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.31830000000000003</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="R3" s="3"/>
+      <c r="S3" s="12"/>
+      <c r="T3">
+        <f t="shared" ref="T3:W16" si="0">(B3+H3+N3)/3</f>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>0.71826666666666661</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>0.8283666666666667</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>0.73943333333333339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.73839999999999995</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.0381</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="R4" s="3"/>
+      <c r="S4" s="12"/>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>0.79333333333333333</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>0.63686666666666669</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>0.61280000000000001</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>0.89603333333333335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.68759999999999999</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.0156000000000001</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="R5" s="3"/>
+      <c r="S5" s="12"/>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>0.66866666666666674</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>0.67920000000000014</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>0.82853333333333345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.83333000000000002</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0.32340000000000002</v>
+      </c>
+      <c r="R6" s="3"/>
+      <c r="S6" s="12"/>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>0.76387666666666665</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>0.55113333333333336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="R7" s="3"/>
+      <c r="S7" s="12"/>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>0.65280000000000005</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>0.78666666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.45829999999999999</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="R8" s="3"/>
+      <c r="S8" s="12"/>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>0.84</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>0.67220000000000002</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>0.93333333333333324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="R9" s="3"/>
+      <c r="S9" s="12"/>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>0.82666666666666666</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>0.79163333333333341</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>0.32666666666666666</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>0.42333333333333334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="R10" s="3"/>
+      <c r="S10" s="12"/>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>0.69443333333333335</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>0.32333333333333336</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>0.5033333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.59689999999999999</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="R11" s="3"/>
+      <c r="S11" s="12"/>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>0.84666666666666668</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>0.76390000000000002</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>0.50229999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R12" s="3"/>
+      <c r="S12" s="12"/>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>0.72223333333333339</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="0"/>
+        <v>0.52666666666666673</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="12"/>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>0.85333333333333339</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>0.65280000000000005</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>0.29333333333333333</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="0"/>
+        <v>0.71666666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.54169999999999996</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="12"/>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>0.68056666666666665</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="R15" s="3"/>
+      <c r="S15" s="12"/>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>0.87666666666666659</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>0.40333333333333332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="12"/>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>0.89</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="0"/>
+        <v>0.51666666666666661</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="12"/>
+    </row>
+    <row r="18" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="12"/>
+    </row>
+    <row r="19" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="12"/>
+    </row>
+    <row r="20" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="12"/>
+    </row>
+    <row r="21" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="12"/>
+    </row>
+    <row r="22" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="12"/>
+    </row>
+    <row r="23" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="12"/>
+    </row>
+    <row r="24" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="12"/>
+    </row>
+    <row r="25" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="12"/>
+    </row>
+    <row r="26" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="12"/>
+    </row>
+    <row r="27" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="2"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="3"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="3"/>
+      <c r="G29" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/NN results.xlsx
+++ b/NN results.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_GitHub\imaginexlab_smartglove\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A97258-9B26-486C-8F54-9F0F58646E6E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6F342E-5641-4957-A622-34D01A7EBD53}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="1935" windowWidth="22305" windowHeight="9150" activeTab="1" xr2:uid="{5A72123B-56DD-4CD8-A3EE-759537C50F30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{5A72123B-56DD-4CD8-A3EE-759537C50F30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="exp1_age" sheetId="2" r:id="rId2"/>
+    <sheet name="exp1_gender" sheetId="3" r:id="rId3"/>
+    <sheet name="exp1_both" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="19">
   <si>
     <t>#Feature</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +105,10 @@
   <si>
     <t>3m25s</t>
   </si>
+  <si>
+    <t>0.2110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -111,7 +118,7 @@
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +143,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -150,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -261,6 +285,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -270,7 +305,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -311,6 +346,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1929,15 +1982,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DF2750-BA70-4DDA-913B-5B685638C472}">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" thickTop="1" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.75" customWidth="1"/>
     <col min="7" max="7" width="1.875" style="13" customWidth="1"/>
     <col min="13" max="13" width="1.875" style="13" customWidth="1"/>
@@ -2266,16 +2321,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C6" s="1">
-        <v>0.83333000000000002</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="D6" s="4">
-        <v>0.4</v>
+        <v>0.30449999999999999</v>
       </c>
       <c r="E6" s="4">
-        <v>0.55000000000000004</v>
+        <v>1.0811999999999999</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="12"/>
@@ -2309,19 +2364,19 @@
       <c r="S6" s="12"/>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>0.77999999999999992</v>
+        <v>0.81333333333333335</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>0.76387666666666665</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="V6">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0.50149999999999995</v>
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
-        <v>0.55113333333333336</v>
+        <v>0.72820000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2329,16 +2384,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C7" s="1">
-        <v>0.79169999999999996</v>
+        <v>0.8095</v>
       </c>
       <c r="D7" s="4">
-        <v>0.6</v>
+        <v>0.41830000000000001</v>
       </c>
       <c r="E7" s="4">
-        <v>0.48</v>
+        <v>0.67059999999999997</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="12"/>
@@ -2372,19 +2427,19 @@
       <c r="S7" s="12"/>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>0.78333333333333333</v>
+        <v>0.81666666666666676</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>0.65280000000000005</v>
+        <v>0.65873333333333328</v>
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
-        <v>0.51666666666666672</v>
+        <v>0.45610000000000001</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
-        <v>0.78666666666666663</v>
+        <v>0.85019999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2392,16 +2447,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>0.85</v>
+        <v>0.8095</v>
       </c>
       <c r="D8" s="4">
-        <v>0.4</v>
+        <v>7.8399999999999997E-2</v>
       </c>
       <c r="E8" s="4">
-        <v>0.7</v>
+        <v>0.50590000000000002</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="12"/>
@@ -2435,19 +2490,19 @@
       <c r="S8" s="12"/>
       <c r="T8">
         <f t="shared" si="0"/>
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>0.67220000000000002</v>
+        <v>0.65869999999999995</v>
       </c>
       <c r="V8">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.22613333333333333</v>
       </c>
       <c r="W8">
         <f t="shared" si="0"/>
-        <v>0.93333333333333324</v>
+        <v>0.86863333333333337</v>
       </c>
     </row>
     <row r="9" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2455,16 +2510,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="C9" s="1">
-        <v>0.83330000000000004</v>
+        <v>0.8095</v>
       </c>
       <c r="D9" s="4">
-        <v>0.3</v>
+        <v>0.18540000000000001</v>
       </c>
       <c r="E9" s="4">
-        <v>0.45</v>
+        <v>0.81920000000000004</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="12"/>
@@ -2498,19 +2553,19 @@
       <c r="S9" s="12"/>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>0.82666666666666666</v>
+        <v>0.84333333333333338</v>
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>0.79163333333333341</v>
+        <v>0.78370000000000006</v>
       </c>
       <c r="V9">
         <f t="shared" si="0"/>
-        <v>0.32666666666666666</v>
+        <v>0.28846666666666665</v>
       </c>
       <c r="W9">
         <f t="shared" si="0"/>
-        <v>0.42333333333333334</v>
+        <v>0.5464</v>
       </c>
     </row>
     <row r="10" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2518,16 +2573,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>0.75</v>
+        <v>0.95240000000000002</v>
       </c>
       <c r="D10" s="4">
-        <v>0.3</v>
+        <v>0.12609999999999999</v>
       </c>
       <c r="E10" s="4">
-        <v>0.3</v>
+        <v>0.40620000000000001</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="12"/>
@@ -2561,19 +2616,19 @@
       <c r="S10" s="12"/>
       <c r="T10">
         <f t="shared" si="0"/>
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
-        <v>0.69443333333333335</v>
+        <v>0.76189999999999991</v>
       </c>
       <c r="V10">
         <f t="shared" si="0"/>
-        <v>0.32333333333333336</v>
+        <v>0.2653666666666667</v>
       </c>
       <c r="W10">
         <f t="shared" si="0"/>
-        <v>0.5033333333333333</v>
+        <v>0.5387333333333334</v>
       </c>
     </row>
     <row r="11" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2581,16 +2636,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>0.83330000000000004</v>
+        <v>0.90480000000000005</v>
       </c>
       <c r="D11" s="4">
-        <v>0.4</v>
+        <v>2.3099999999999999E-2</v>
       </c>
       <c r="E11" s="4">
-        <v>0.4</v>
+        <v>0.35360000000000003</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="12"/>
@@ -2624,19 +2679,19 @@
       <c r="S11" s="12"/>
       <c r="T11">
         <f t="shared" si="0"/>
-        <v>0.84666666666666668</v>
+        <v>0.89666666666666661</v>
       </c>
       <c r="U11">
         <f t="shared" si="0"/>
-        <v>0.76390000000000002</v>
+        <v>0.78773333333333329</v>
       </c>
       <c r="V11">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.2077</v>
       </c>
       <c r="W11">
         <f t="shared" si="0"/>
-        <v>0.50229999999999997</v>
+        <v>0.4868333333333334</v>
       </c>
     </row>
     <row r="12" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2644,16 +2699,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>0.75</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="D12" s="4">
-        <v>0.4</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="E12" s="4">
-        <v>0.48</v>
+        <v>0.73380000000000001</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="12"/>
@@ -2687,19 +2742,19 @@
       <c r="S12" s="12"/>
       <c r="T12">
         <f t="shared" si="0"/>
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="U12">
         <f t="shared" si="0"/>
-        <v>0.72223333333333339</v>
+        <v>0.75793333333333335</v>
       </c>
       <c r="V12">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.21896666666666667</v>
       </c>
       <c r="W12">
         <f t="shared" si="0"/>
-        <v>0.52666666666666673</v>
+        <v>0.61126666666666674</v>
       </c>
     </row>
     <row r="13" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2707,16 +2762,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>0.625</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="D13" s="4">
-        <v>0.3</v>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="E13" s="4">
-        <v>0.6</v>
+        <v>0.45839999999999997</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="12"/>
@@ -2750,19 +2805,19 @@
       <c r="S13" s="12"/>
       <c r="T13">
         <f t="shared" si="0"/>
-        <v>0.85333333333333339</v>
+        <v>0.90333333333333332</v>
       </c>
       <c r="U13">
         <f t="shared" si="0"/>
-        <v>0.65280000000000005</v>
+        <v>0.73016666666666674</v>
       </c>
       <c r="V13">
         <f t="shared" si="0"/>
-        <v>0.29333333333333333</v>
+        <v>0.20163333333333333</v>
       </c>
       <c r="W13">
         <f t="shared" si="0"/>
-        <v>0.71666666666666667</v>
+        <v>0.66946666666666665</v>
       </c>
     </row>
     <row r="14" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2770,16 +2825,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="C14" s="1">
-        <v>0.75</v>
+        <v>0.90480000000000005</v>
       </c>
       <c r="D14" s="4">
-        <v>0.35</v>
+        <v>0.13519999999999999</v>
       </c>
       <c r="E14" s="4">
-        <v>0.38</v>
+        <v>0.39660000000000001</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="12"/>
@@ -2813,19 +2868,19 @@
       <c r="S14" s="12"/>
       <c r="T14">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="U14">
         <f t="shared" si="0"/>
-        <v>0.68056666666666665</v>
+        <v>0.73216666666666663</v>
       </c>
       <c r="V14">
         <f t="shared" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>0.21840000000000001</v>
       </c>
       <c r="W14">
         <f t="shared" si="0"/>
-        <v>0.51666666666666672</v>
+        <v>0.5222</v>
       </c>
     </row>
     <row r="15" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2833,16 +2888,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>0.79169999999999996</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="D15" s="4">
-        <v>0.22</v>
+        <v>1.41E-2</v>
       </c>
       <c r="E15" s="4">
-        <v>0.46</v>
+        <v>0.49569999999999997</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="12"/>
@@ -2876,19 +2931,19 @@
       <c r="S15" s="12"/>
       <c r="T15">
         <f t="shared" si="0"/>
-        <v>0.87666666666666659</v>
+        <v>0.91</v>
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
-        <v>0.79169999999999996</v>
+        <v>0.8135</v>
       </c>
       <c r="V15">
         <f t="shared" si="0"/>
-        <v>0.26666666666666666</v>
+        <v>0.19803333333333337</v>
       </c>
       <c r="W15">
         <f t="shared" si="0"/>
-        <v>0.40333333333333332</v>
+        <v>0.41523333333333329</v>
       </c>
     </row>
     <row r="16" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2896,16 +2951,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="C16" s="1">
-        <v>0.625</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="D16" s="4">
-        <v>0.28000000000000003</v>
+        <v>0.1081</v>
       </c>
       <c r="E16" s="4">
-        <v>0.61</v>
+        <v>0.39550000000000002</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="12"/>
@@ -2939,29 +2994,37 @@
       <c r="S16" s="12"/>
       <c r="T16">
         <f t="shared" si="0"/>
-        <v>0.89</v>
+        <v>0.89666666666666661</v>
       </c>
       <c r="U16">
         <f t="shared" si="0"/>
-        <v>0.70833333333333337</v>
+        <v>0.78569999999999995</v>
       </c>
       <c r="V16">
         <f t="shared" si="0"/>
-        <v>0.26</v>
+        <v>0.20269999999999999</v>
       </c>
       <c r="W16">
         <f t="shared" si="0"/>
-        <v>0.51666666666666661</v>
+        <v>0.44516666666666671</v>
       </c>
     </row>
     <row r="17" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.95240000000000002</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.2702</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="12"/>
       <c r="H17" s="1"/>
@@ -2981,10 +3044,18 @@
       <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.90480000000000005</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.1731</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="12"/>
       <c r="H18" s="1"/>
@@ -3004,10 +3075,18 @@
       <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="B19" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.8095</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.36749999999999999</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.34129999999999999</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="12"/>
       <c r="H19" s="1"/>
@@ -3027,10 +3106,18 @@
       <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1.23E-2</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.70340000000000003</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="12"/>
       <c r="H20" s="1"/>
@@ -3050,10 +3137,18 @@
       <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.8095</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.80810000000000004</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="12"/>
       <c r="H21" s="1"/>
@@ -3070,6 +3165,3410 @@
       <c r="S21" s="12"/>
     </row>
     <row r="22" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.90480000000000005</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="12"/>
+    </row>
+    <row r="23" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.95240000000000002</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.1857</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="12"/>
+    </row>
+    <row r="24" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.8095</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.501</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="12"/>
+    </row>
+    <row r="25" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="D25" s="4">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.3488</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="12"/>
+    </row>
+    <row r="26" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.41820000000000002</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="12"/>
+    </row>
+    <row r="27" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="14">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.90480000000000005</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="4"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E29" s="4"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E31" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A014925-A7E5-4C48-9983-43773EA56A67}">
+  <dimension ref="A1:W29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" thickTop="1" thickBottom="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="1.875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="1.875" style="13" customWidth="1"/>
+    <col min="19" max="19" width="1.875" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="11"/>
+      <c r="N1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="11"/>
+      <c r="T1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.47620000000000001</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="I2" s="15">
+        <v>0.8095</v>
+      </c>
+      <c r="J2" s="16">
+        <v>0.89370000000000005</v>
+      </c>
+      <c r="K2" s="16">
+        <v>0.5071</v>
+      </c>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="O2" s="15">
+        <v>0.52380000000000004</v>
+      </c>
+      <c r="P2" s="16">
+        <v>0.64690000000000003</v>
+      </c>
+      <c r="Q2" s="16">
+        <v>0.84509999999999996</v>
+      </c>
+      <c r="R2" s="17"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="19">
+        <f>(B2+H2+N2)/3</f>
+        <v>0.69999999999999984</v>
+      </c>
+      <c r="U2" s="19">
+        <f>(C2+I2+O2)/3</f>
+        <v>0.60316666666666674</v>
+      </c>
+      <c r="V2" s="19">
+        <f>(D2+J2+P2)/3</f>
+        <v>0.73019999999999996</v>
+      </c>
+      <c r="W2" s="19">
+        <f>(E2+K2+Q2)/3</f>
+        <v>0.67406666666666659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="K3" s="16">
+        <v>1.05</v>
+      </c>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="O3" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="P3" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>0.85</v>
+      </c>
+      <c r="R3" s="17"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="19">
+        <f t="shared" ref="T3:W16" si="0">(B3+H3+N3)/3</f>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="U3" s="19">
+        <f t="shared" si="0"/>
+        <v>0.60713333333333341</v>
+      </c>
+      <c r="V3" s="19">
+        <f t="shared" si="0"/>
+        <v>0.74333333333333329</v>
+      </c>
+      <c r="W3" s="19">
+        <f t="shared" si="0"/>
+        <v>0.8566666666666668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.40820000000000001</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.53269999999999995</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="15">
+        <v>0.78</v>
+      </c>
+      <c r="O4" s="15">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="P4" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="R4" s="17"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="19">
+        <f t="shared" si="0"/>
+        <v>0.77666666666666673</v>
+      </c>
+      <c r="U4" s="19">
+        <f t="shared" si="0"/>
+        <v>0.6505333333333333</v>
+      </c>
+      <c r="V4" s="19">
+        <f t="shared" si="0"/>
+        <v>0.50273333333333337</v>
+      </c>
+      <c r="W4" s="19">
+        <f t="shared" si="0"/>
+        <v>0.72756666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.52380000000000004</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.47370000000000001</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.64970000000000006</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="15">
+        <v>0.68</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0.64</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="15">
+        <v>0.62</v>
+      </c>
+      <c r="O5" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>0.83</v>
+      </c>
+      <c r="R5" s="17"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="19">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U5" s="19">
+        <f t="shared" si="0"/>
+        <v>0.60516666666666674</v>
+      </c>
+      <c r="V5" s="19">
+        <f t="shared" si="0"/>
+        <v>0.6079</v>
+      </c>
+      <c r="W5" s="19">
+        <f t="shared" si="0"/>
+        <v>0.70656666666666668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.57169999999999999</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="15">
+        <v>0.77</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0.78</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="15">
+        <v>0.77</v>
+      </c>
+      <c r="O6" s="15">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="P6" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>0.32340000000000002</v>
+      </c>
+      <c r="R6" s="17"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="19">
+        <f t="shared" si="0"/>
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="U6" s="19">
+        <f t="shared" si="0"/>
+        <v>0.67666666666666664</v>
+      </c>
+      <c r="V6" s="19">
+        <f t="shared" si="0"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="W6" s="19">
+        <f t="shared" si="0"/>
+        <v>0.66113333333333335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.49469999999999997</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="K7" s="16">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="O7" s="15">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="P7" s="16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="R7" s="17"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="19">
+        <f t="shared" si="0"/>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="U7" s="19">
+        <f t="shared" si="0"/>
+        <v>0.59523333333333328</v>
+      </c>
+      <c r="V7" s="19">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="W7" s="19">
+        <f t="shared" si="0"/>
+        <v>0.79156666666666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1.0036</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="15">
+        <v>0.85</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="15">
+        <v>0.85</v>
+      </c>
+      <c r="O8" s="15">
+        <v>0.45829999999999999</v>
+      </c>
+      <c r="P8" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>1.6</v>
+      </c>
+      <c r="R8" s="17"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="19">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="U8" s="19">
+        <f t="shared" si="0"/>
+        <v>0.53173333333333328</v>
+      </c>
+      <c r="V8" s="19">
+        <f t="shared" si="0"/>
+        <v>0.31333333333333335</v>
+      </c>
+      <c r="W8" s="19">
+        <f t="shared" si="0"/>
+        <v>1.0345333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="15">
+        <v>0.83</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0.31</v>
+      </c>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="P9" s="16">
+        <v>0.38</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>0.51</v>
+      </c>
+      <c r="R9" s="17"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="19">
+        <f t="shared" si="0"/>
+        <v>0.80999999999999994</v>
+      </c>
+      <c r="U9" s="19">
+        <f t="shared" si="0"/>
+        <v>0.79956666666666665</v>
+      </c>
+      <c r="V9" s="19">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="W9" s="19">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="15">
+        <v>0.85</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0.27</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0.71</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="15">
+        <v>0.85</v>
+      </c>
+      <c r="O10" s="15">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="P10" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="R10" s="17"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="19">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="U10" s="19">
+        <f t="shared" si="0"/>
+        <v>0.7301333333333333</v>
+      </c>
+      <c r="V10" s="19">
+        <f t="shared" si="0"/>
+        <v>0.37333333333333335</v>
+      </c>
+      <c r="W10" s="19">
+        <f t="shared" si="0"/>
+        <v>0.55666666666666664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.8095</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="15">
+        <v>0.85</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0.59689999999999999</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="15">
+        <v>0.84</v>
+      </c>
+      <c r="O11" s="15">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="P11" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>0.51</v>
+      </c>
+      <c r="R11" s="17"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="19">
+        <f t="shared" si="0"/>
+        <v>0.86333333333333329</v>
+      </c>
+      <c r="U11" s="19">
+        <f t="shared" si="0"/>
+        <v>0.75596666666666668</v>
+      </c>
+      <c r="V11" s="19">
+        <f t="shared" si="0"/>
+        <v>0.27666666666666667</v>
+      </c>
+      <c r="W11" s="19">
+        <f t="shared" si="0"/>
+        <v>0.5389666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.1585</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.73140000000000005</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="15">
+        <v>0.85</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="K12" s="16">
+        <v>0.54</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="15">
+        <v>0.85</v>
+      </c>
+      <c r="O12" s="15">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="P12" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R12" s="17"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="19">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="U12" s="19">
+        <f t="shared" si="0"/>
+        <v>0.71033333333333337</v>
+      </c>
+      <c r="V12" s="19">
+        <f t="shared" si="0"/>
+        <v>0.2528333333333333</v>
+      </c>
+      <c r="W12" s="19">
+        <f t="shared" si="0"/>
+        <v>0.61046666666666671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4.6100000000000002E-2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1.08</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="15">
+        <v>0.85</v>
+      </c>
+      <c r="I13" s="15">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="K13" s="16">
+        <v>1.05</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="15">
+        <v>0.86</v>
+      </c>
+      <c r="O13" s="15">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="P13" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="R13" s="17"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="19">
+        <f t="shared" si="0"/>
+        <v>0.90333333333333332</v>
+      </c>
+      <c r="U13" s="19">
+        <f t="shared" si="0"/>
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="V13" s="19">
+        <f t="shared" si="0"/>
+        <v>0.2087</v>
+      </c>
+      <c r="W13" s="19">
+        <f t="shared" si="0"/>
+        <v>0.87666666666666659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.8095</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="I14" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="K14" s="16">
+        <v>0.41</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="15">
+        <v>0.85</v>
+      </c>
+      <c r="O14" s="15">
+        <v>0.54169999999999996</v>
+      </c>
+      <c r="P14" s="16">
+        <v>0.27</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>0.76</v>
+      </c>
+      <c r="R14" s="17"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="19">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="U14" s="19">
+        <f t="shared" si="0"/>
+        <v>0.70040000000000002</v>
+      </c>
+      <c r="V14" s="19">
+        <f t="shared" si="0"/>
+        <v>0.19233333333333333</v>
+      </c>
+      <c r="W14" s="19">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="15">
+        <v>0.85</v>
+      </c>
+      <c r="I15" s="15">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="K15" s="16">
+        <v>0.38</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="15">
+        <v>0.88</v>
+      </c>
+      <c r="O15" s="15">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="P15" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>0.37</v>
+      </c>
+      <c r="R15" s="17"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="19">
+        <f t="shared" si="0"/>
+        <v>0.91</v>
+      </c>
+      <c r="U15" s="19">
+        <f t="shared" si="0"/>
+        <v>0.8135</v>
+      </c>
+      <c r="V15" s="19">
+        <f t="shared" si="0"/>
+        <v>0.21</v>
+      </c>
+      <c r="W15" s="19">
+        <f t="shared" si="0"/>
+        <v>0.4366666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2.81E-2</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="15">
+        <v>0.89</v>
+      </c>
+      <c r="I16" s="15">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="J16" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="K16" s="16">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="O16" s="15">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="P16" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="Q16" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="R16" s="17"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="19">
+        <f t="shared" si="0"/>
+        <v>0.93</v>
+      </c>
+      <c r="U16" s="19">
+        <f t="shared" si="0"/>
+        <v>0.75396666666666678</v>
+      </c>
+      <c r="V16" s="19">
+        <f t="shared" si="0"/>
+        <v>0.17603333333333335</v>
+      </c>
+      <c r="W16" s="19">
+        <f t="shared" si="0"/>
+        <v>0.54666666666666652</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="D17" s="4">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.87580000000000002</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+    </row>
+    <row r="18" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.309</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.60640000000000005</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+    </row>
+    <row r="19" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.95240000000000002</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.1236</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+    </row>
+    <row r="20" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2.2599999999999999E-2</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+    </row>
+    <row r="21" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.16239999999999999</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.74839999999999995</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+    </row>
+    <row r="22" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="D22" s="4">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.65139999999999998</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="12"/>
+    </row>
+    <row r="23" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5.3800000000000001E-2</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.40949999999999998</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="12"/>
+    </row>
+    <row r="24" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.17430000000000001</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.33489999999999998</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="12"/>
+    </row>
+    <row r="25" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.95240000000000002</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.21279999999999999</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="12"/>
+    </row>
+    <row r="26" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.90480000000000005</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.495</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="12"/>
+    </row>
+    <row r="27" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="14">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.90480000000000005</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.13650000000000001</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="3"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:23" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="3"/>
+      <c r="G29" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA185802-A7EE-4E36-AF50-45E0E9035105}">
+  <dimension ref="A1:W31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="11"/>
+      <c r="N1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="11"/>
+      <c r="T1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="19">
+        <f>(B2+H2+N2)/3</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="19">
+        <f>(C2+I2+O2)/3</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="19">
+        <f>(D2+J2+P2)/3</f>
+        <v>0</v>
+      </c>
+      <c r="W2" s="19">
+        <f>(E2+K2+Q2)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="19">
+        <f t="shared" ref="T3:W16" si="0">(B3+H3+N3)/3</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U4" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.8095</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.74039999999999995</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.29659999999999997</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.1459</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.51419999999999999</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.16750000000000001</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.64859999999999995</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="12"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.12130000000000001</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.83530000000000004</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="12"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="D24" s="4">
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.60519999999999996</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="12"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1.03</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="12"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="D26" s="4">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.68489999999999995</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="12"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="14">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="D27" s="4">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.62549999999999994</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="12"/>
+      <c r="M27" s="13"/>
+      <c r="S27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="3"/>
+      <c r="G28" s="12"/>
+      <c r="M28" s="13"/>
+      <c r="S28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="3"/>
+      <c r="G29" s="12"/>
+      <c r="M29" s="13"/>
+      <c r="S29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="S30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D04D73-E977-4283-8C12-18FEE85FCCD4}">
+  <dimension ref="A1:W29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="11"/>
+      <c r="N1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="11"/>
+      <c r="T1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="19">
+        <f>(B2+H2+N2)/3</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="19">
+        <f>(C2+I2+O2)/3</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="19">
+        <f>(D2+J2+P2)/3</f>
+        <v>0</v>
+      </c>
+      <c r="W2" s="19">
+        <f>(E2+K2+Q2)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="19">
+        <f t="shared" ref="T3:W16" si="0">(B3+H3+N3)/3</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U4" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -3092,7 +6591,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -3115,7 +6614,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -3138,7 +6637,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -3161,7 +6660,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -3184,22 +6683,28 @@
       <c r="R26" s="3"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E27" s="2"/>
+    <row r="27" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="14">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="3"/>
       <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M27" s="13"/>
+      <c r="S27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F28" s="3"/>
       <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="1:19" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F29" s="3"/>
-      <c r="G29" s="12"/>
-    </row>
+      <c r="M28" s="13"/>
+      <c r="S28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NN results.xlsx
+++ b/NN results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_GitHub\imaginexlab_smartglove\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6F342E-5641-4957-A622-34D01A7EBD53}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FE89C5-BD48-4DD0-8419-5F7EBD4E49A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{5A72123B-56DD-4CD8-A3EE-759537C50F30}"/>
   </bookViews>
@@ -4758,8 +4758,1068 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA185802-A7EE-4E36-AF50-45E0E9035105}">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="11"/>
+      <c r="N1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="11"/>
+      <c r="T1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="19">
+        <f>(B2+H2+N2)/3</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="19">
+        <f>(C2+I2+O2)/3</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="19">
+        <f>(D2+J2+P2)/3</f>
+        <v>0</v>
+      </c>
+      <c r="W2" s="19">
+        <f>(E2+K2+Q2)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="19">
+        <f t="shared" ref="T3:W16" si="0">(B3+H3+N3)/3</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U4" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="19">
+        <f t="shared" si="0"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="U14" s="19">
+        <f t="shared" si="0"/>
+        <v>0.20633333333333334</v>
+      </c>
+      <c r="V14" s="19">
+        <f t="shared" si="0"/>
+        <v>0.13666666666666666</v>
+      </c>
+      <c r="W14" s="19">
+        <f t="shared" si="0"/>
+        <v>0.32333333333333331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.27410000000000001</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.69420000000000004</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="19">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U15" s="19">
+        <f t="shared" si="0"/>
+        <v>0.23810000000000001</v>
+      </c>
+      <c r="V15" s="19">
+        <f t="shared" si="0"/>
+        <v>9.1366666666666665E-2</v>
+      </c>
+      <c r="W15" s="19">
+        <f t="shared" si="0"/>
+        <v>0.23140000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.218</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.62549999999999994</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="19">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U16" s="19">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+      <c r="V16" s="19">
+        <f t="shared" si="0"/>
+        <v>7.2666666666666671E-2</v>
+      </c>
+      <c r="W16" s="19">
+        <f t="shared" si="0"/>
+        <v>0.20849999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.2747</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.8095</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.74039999999999995</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.29659999999999997</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.1459</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.51419999999999999</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.16750000000000001</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.64859999999999995</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="12"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.12130000000000001</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.83530000000000004</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="12"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="D24" s="4">
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.60519999999999996</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="12"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1.03</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="12"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="D26" s="4">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.68489999999999995</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="12"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="14">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="D27" s="4">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.62549999999999994</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="12"/>
+      <c r="M27" s="13"/>
+      <c r="S27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="3"/>
+      <c r="G28" s="12"/>
+      <c r="M28" s="13"/>
+      <c r="S28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="3"/>
+      <c r="G29" s="12"/>
+      <c r="M29" s="13"/>
+      <c r="S29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="S30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D04D73-E977-4283-8C12-18FEE85FCCD4}">
+  <dimension ref="A1:W29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5472,1025 +6532,6 @@
       <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.8095</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.74039999999999995</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-    </row>
-    <row r="20" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.71430000000000005</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.29659999999999997</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.73309999999999997</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-    </row>
-    <row r="21" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.76190000000000002</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.1459</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.51419999999999999</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-    </row>
-    <row r="22" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.71430000000000005</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0.16750000000000001</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0.64859999999999995</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="12"/>
-    </row>
-    <row r="23" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.71430000000000005</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.12130000000000001</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0.83530000000000004</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="12"/>
-    </row>
-    <row r="24" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.76190000000000002</v>
-      </c>
-      <c r="D24" s="4">
-        <v>9.5200000000000007E-2</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0.60519999999999996</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="12"/>
-    </row>
-    <row r="25" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.57140000000000002</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="E25" s="4">
-        <v>1.03</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="12"/>
-    </row>
-    <row r="26" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.76190000000000002</v>
-      </c>
-      <c r="D26" s="4">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0.68489999999999995</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="12"/>
-    </row>
-    <row r="27" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="14">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.76190000000000002</v>
-      </c>
-      <c r="D27" s="4">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0.62549999999999994</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="12"/>
-      <c r="M27" s="13"/>
-      <c r="S27" s="13"/>
-    </row>
-    <row r="28" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F28" s="3"/>
-      <c r="G28" s="12"/>
-      <c r="M28" s="13"/>
-      <c r="S28" s="13"/>
-    </row>
-    <row r="29" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F29" s="3"/>
-      <c r="G29" s="12"/>
-      <c r="M29" s="13"/>
-      <c r="S29" s="13"/>
-    </row>
-    <row r="30" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="S30" s="13"/>
-    </row>
-    <row r="31" spans="1:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D04D73-E977-4283-8C12-18FEE85FCCD4}">
-  <dimension ref="A1:W29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="11"/>
-      <c r="T1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="19">
-        <f>(B2+H2+N2)/3</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="19">
-        <f>(C2+I2+O2)/3</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="19">
-        <f>(D2+J2+P2)/3</f>
-        <v>0</v>
-      </c>
-      <c r="W2" s="19">
-        <f>(E2+K2+Q2)/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="19">
-        <f t="shared" ref="T3:W16" si="0">(B3+H3+N3)/3</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V3" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W3" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U4" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V4" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W4" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-    </row>
-    <row r="18" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-    </row>
-    <row r="19" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
-        <v>18</v>
-      </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
